--- a/Listas de precios/minorista/BISAGRA LIBRO-5005.xlsx
+++ b/Listas de precios/minorista/BISAGRA LIBRO-5005.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="2">
@@ -1187,28 +1187,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/BISAGRA LIBRO-5005.xlsx
+++ b/Listas de precios/minorista/BISAGRA LIBRO-5005.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="2">
@@ -1187,28 +1187,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/minorista/BISAGRA LIBRO-5005.xlsx
+++ b/Listas de precios/minorista/BISAGRA LIBRO-5005.xlsx
@@ -766,7 +766,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="2">
@@ -1187,28 +1187,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
